--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>490494.1150211869</v>
+        <v>487931.094685282</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>280.9667343657055</v>
       </c>
       <c r="E2" t="n">
-        <v>37.58629078439702</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>58.16284050992817</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.4040920724971</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,10 +832,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>18.7778355093986</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>252.506253248314</v>
       </c>
       <c r="E5" t="n">
-        <v>59.89955895110892</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,19 +1057,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.468288666821</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>209.9271762854922</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>118.2881444359056</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>150.4834223965015</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>194.7017432883025</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>214.1758590541617</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1528,16 +1528,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>41.74133133758761</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986265</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699835</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>56.49518623012991</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,13 +2008,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833726</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012262</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.5813113004299</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2242,16 +2242,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>76.17049831699767</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>35.66650366117342</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182133</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>142.1343012721624</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>136.1078891637036</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.0280580960838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>101.6969570046975</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>103.1686991936197</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>95.12712756824166</v>
+        <v>23.62554568141315</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>146.7151441592111</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1179.250440354287</v>
+        <v>335.0515687555844</v>
       </c>
       <c r="C2" t="n">
-        <v>810.2879234138754</v>
+        <v>335.0515687555844</v>
       </c>
       <c r="D2" t="n">
-        <v>452.0222248071249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>414.0562745198552</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816079</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2308.758267664335</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1955.989612394221</v>
+        <v>1485.256499056598</v>
       </c>
       <c r="X2" t="n">
-        <v>1955.989612394221</v>
+        <v>1111.790740795518</v>
       </c>
       <c r="Y2" t="n">
-        <v>1565.850280418409</v>
+        <v>721.6514088197061</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>238.4273302370161</v>
@@ -4413,19 +4413,19 @@
         <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>717.8525085495377</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
         <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1468.399656105703</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O3" t="n">
-        <v>1800.470091281865</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P3" t="n">
-        <v>2362.930966067699</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>624.8936537153462</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>455.9574707874393</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1617.478609458943</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1617.478609458943</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1328.360271962781</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V4" t="n">
-        <v>1073.675783756894</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>1073.675783756894</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>845.6862328588763</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>624.8936537153462</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1373.778212738965</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="C5" t="n">
-        <v>1004.815695798554</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="D5" t="n">
-        <v>1004.815695798554</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.012626270159</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.012626270159</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000045</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1373.778212738965</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="Y5" t="n">
-        <v>1373.778212738965</v>
+        <v>1485.986492286524</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4638,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380227</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828714</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.1991671823603</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C7" t="n">
-        <v>517.2629842544534</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>367.1463448421176</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1363.692725037735</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1140.71424423247</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.398467260869</v>
+        <v>851.5959067363081</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.398467260869</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.981297223908</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9917463258904</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="Y7" t="n">
-        <v>686.1991671823603</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1694.732133680699</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="C8" t="n">
-        <v>1325.769616740288</v>
+        <v>732.1814761616938</v>
       </c>
       <c r="D8" t="n">
-        <v>967.5039181335374</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="E8" t="n">
-        <v>581.7156655352931</v>
+        <v>373.9157775549433</v>
       </c>
       <c r="F8" t="n">
-        <v>170.7297607456855</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4802,16 +4802,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872912</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656511</v>
+        <v>1492.247074486895</v>
       </c>
       <c r="X8" t="n">
-        <v>2084.871465656511</v>
+        <v>1118.781316225816</v>
       </c>
       <c r="Y8" t="n">
-        <v>1694.732133680699</v>
+        <v>1118.781316225816</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057898</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4884,22 +4884,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>1057.327935297104</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1420.589954256325</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1807.87508285327</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2139.945518029432</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>451.9049743189132</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C10" t="n">
-        <v>451.9049743189132</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D10" t="n">
-        <v>451.9049743189132</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E10" t="n">
-        <v>303.9918807365201</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386097</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1413.467639269233</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="V10" t="n">
-        <v>1158.783151063346</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="W10" t="n">
-        <v>869.3659810263853</v>
+        <v>825.1371474485136</v>
       </c>
       <c r="X10" t="n">
-        <v>672.6975534624434</v>
+        <v>597.1475965504962</v>
       </c>
       <c r="Y10" t="n">
-        <v>451.9049743189132</v>
+        <v>380.8083449806359</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5112,22 +5112,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>251.5626541092259</v>
       </c>
       <c r="L12" t="n">
-        <v>119.2902967703784</v>
+        <v>746.8882603249848</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969303</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N12" t="n">
         <v>1344.266747951537</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>197.0043242297721</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614391</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,19 +5264,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192611</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5288,28 +5288,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245705</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438167</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>639.6425904082686</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C16" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="D16" t="n">
-        <v>470.7064074803617</v>
+        <v>344.9174178121665</v>
       </c>
       <c r="E16" t="n">
-        <v>322.7933138979686</v>
+        <v>197.0043242297734</v>
       </c>
       <c r="F16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2322.851535155764</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>2103.250070178705</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1814.174843522903</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1559.490355317016</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W16" t="n">
-        <v>1270.073185280056</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1042.083634382038</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y16" t="n">
-        <v>821.2910552385083</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121634</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998277</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y19" t="n">
-        <v>1056.517090583878</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="20">
@@ -5732,19 +5732,19 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
@@ -5826,19 +5826,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>724.7519863413023</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133954</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>906.400451171542</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,13 +5996,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6069,19 +6069,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.04349261611</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>948.5505208511906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1941.434309135586</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1686.749820929699</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1397.332650892738</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6263,10 +6263,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.868625753639</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257321</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662387</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,19 +6455,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6537,13 +6537,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6555,13 +6555,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6680,16 +6680,16 @@
         <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797189</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6929,28 +6929,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694708</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.2707707770323</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>634.3345878491255</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>363.7369613277359</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7132,13 +7132,13 @@
         <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1433.70136564882</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>984.9192356072721</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7196,25 +7196,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273905</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>95.58405025273905</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782958</v>
@@ -7354,28 +7354,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7652,16 +7652,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>721.7774158311365</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>552.8412329032296</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1896.309668945771</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1641.625180739884</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1352.208010702924</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1124.218459804906</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>903.4258806613763</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8067,19 +8067,19 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.387732507165</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>84.9418658837474</v>
+        <v>154.0169020165195</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.327346787835</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>20.93778120154991</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,13 +8547,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>60.50016306149524</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9890,7 +9890,7 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>-3.940996767551754e-13</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>-5.400124791776761e-13</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -22547,16 +22547,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.71630725497751</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>348.7132052317833</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -22565,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,7 +22598,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-6.190246567156956e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>125.5054897610387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.26526345294904</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -23434,7 +23434,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.26526345294778</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23671,7 +23671,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.5310997715147</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>45.44677382459399</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856724</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>110.0033420516649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>250.5179707280707</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>110.0033420516656</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25312,25 +25312,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0.5874149221285734</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>43.72409101823371</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>45.44677382459265</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856552</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>72.11969353038617</v>
+        <v>143.6212754172147</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25795,13 +25795,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>966217.2690034921</v>
+        <v>966217.2690034917</v>
       </c>
     </row>
     <row r="3">
@@ -26314,46 +26314,46 @@
         <v>354580.09686312</v>
       </c>
       <c r="C2" t="n">
+        <v>389994.8406855347</v>
+      </c>
+      <c r="D2" t="n">
         <v>389994.8406855348</v>
-      </c>
-      <c r="D2" t="n">
-        <v>389994.8406855347</v>
       </c>
       <c r="E2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="F2" t="n">
+        <v>383394.634852753</v>
+      </c>
+      <c r="G2" t="n">
         <v>383394.6348527531</v>
       </c>
-      <c r="G2" t="n">
-        <v>383394.634852753</v>
-      </c>
       <c r="H2" t="n">
-        <v>383394.634852753</v>
+        <v>383394.6348527529</v>
       </c>
       <c r="I2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="J2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="K2" t="n">
-        <v>383394.6348527529</v>
+        <v>383394.6348527528</v>
       </c>
       <c r="L2" t="n">
         <v>383394.6348527529</v>
       </c>
       <c r="M2" t="n">
-        <v>383394.6348527527</v>
+        <v>383394.634852753</v>
       </c>
       <c r="N2" t="n">
         <v>383394.634852753</v>
       </c>
       <c r="O2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="P2" t="n">
         <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.6348527529</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245464</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.62584001373034e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>91763.11654919857</v>
+        <v>91763.1165491984</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
@@ -26427,7 +26427,7 @@
         <v>8117.312426731975</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26436,25 +26436,25 @@
         <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
+        <v>8117.312426731985</v>
+      </c>
+      <c r="J4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="J4" t="n">
-        <v>8117.312426731985</v>
-      </c>
       <c r="K4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="L4" t="n">
+        <v>8117.312426731935</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>8117.312426731956</v>
       </c>
-      <c r="M4" t="n">
-        <v>8117.312426731962</v>
-      </c>
-      <c r="N4" t="n">
-        <v>8117.312426731975</v>
-      </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731998</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26476,7 +26476,7 @@
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-944872.5757018428</v>
+        <v>-945058.9690903818</v>
       </c>
       <c r="C6" t="n">
         <v>162739.0679838263</v>
       </c>
       <c r="D6" t="n">
-        <v>162739.0679838261</v>
+        <v>162739.0679838264</v>
       </c>
       <c r="E6" t="n">
-        <v>-233330.6490224321</v>
+        <v>-233365.3869478682</v>
       </c>
       <c r="F6" t="n">
-        <v>274154.792602114</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="G6" t="n">
-        <v>274154.7926021141</v>
+        <v>274120.0546766786</v>
       </c>
       <c r="H6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="I6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766782</v>
       </c>
       <c r="J6" t="n">
-        <v>106549.614792131</v>
+        <v>106514.8768666956</v>
       </c>
       <c r="K6" t="n">
-        <v>274154.7926021138</v>
+        <v>274120.0546766779</v>
       </c>
       <c r="L6" t="n">
-        <v>274154.7926021136</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="M6" t="n">
-        <v>141547.4988731869</v>
+        <v>141512.7609477514</v>
       </c>
       <c r="N6" t="n">
-        <v>274154.7926021139</v>
+        <v>274120.0546766781</v>
       </c>
       <c r="O6" t="n">
-        <v>274154.7926021141</v>
+        <v>274120.054676678</v>
       </c>
       <c r="P6" t="n">
-        <v>274154.7926021138</v>
+        <v>274120.0546766784</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26957,37 +26957,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241351</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>433.9106082241346</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996101</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>344.3440792878648</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.8368766449159</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.19417169491601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>175.8846248523389</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>102.1767883723689</v>
       </c>
       <c r="E5" t="n">
-        <v>322.0308111211529</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,19 +27777,19 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>26.19417169491652</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>76.29997783570843</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>293.2595583370484</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>198.7575463209115</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,16 +28020,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>31.00791210073467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>4.408794297933071</v>
       </c>
     </row>
     <row r="11">
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.319714707885093e-12</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29436,7 +29436,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-9.426533627750662e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -31042,43 +31042,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,7 +31133,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
         <v>509.0653662040588</v>
@@ -31142,25 +31142,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31233,13 +31233,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>146.0225991093077</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
         <v>375.5996128485291</v>
@@ -31865,7 +31865,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305192</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>732.4825987614906</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,13 +32309,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,22 +32546,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32801,10 +32801,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7051287319853</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>748.8168776781358</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,13 +33506,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>407.217739120397</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33521,7 +33521,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742439</v>
@@ -33731,13 +33731,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473073</v>
@@ -33749,13 +33749,13 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,22 +33968,22 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>732.4825987614911</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>405.637736314577</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437244</v>
@@ -33995,7 +33995,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742439</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,16 +34460,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>201.4225882146019</v>
+        <v>270.4976243473741</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
         <v>278.0112915831069</v>
@@ -34866,7 +34866,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
         <v>262.6644876295069</v>
@@ -34875,7 +34875,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,16 +35012,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313198</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820404</v>
+        <v>577.9642335061964</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35030,10 +35030,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235322</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>310.1796921850275</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>8.181160134948685</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394598</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625076</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561602</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>590.3485648394724</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,22 +36194,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36449,10 +36449,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>409.1088842875408</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>617.4751655948025</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462675</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,13 +37154,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983787</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37169,7 +37169,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.3288951674331</v>
@@ -37397,13 +37397,13 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,22 +37616,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>590.3485648394727</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>274.2960242312436</v>
       </c>
       <c r="O39" t="n">
         <v>557.48457599928</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,16 +38108,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
